--- a/20春_Web数据挖掘_week02_liepin.xlsx
+++ b/20春_Web数据挖掘_week02_liepin.xlsx
@@ -14,19 +14,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>薪水</t>
+  </si>
   <si>
     <t>公司地点</t>
   </si>
   <si>
     <t>公司名称</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>链结</t>
+  </si>
+  <si>
+    <t>公司URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品经理 </t>
+  </si>
+  <si>
+    <t>6-10k·12薪</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>汕头保税区领域跨境电子商务有限公司</t>
+  </si>
+  <si>
+    <t>一个月前</t>
+  </si>
+  <si>
+    <t>3年以上 本科及以上</t>
+  </si>
+  <si>
+    <t>https://m.liepin.com/job/1918774191.shtml</t>
+  </si>
+  <si>
+    <t>https://m.liepin.com/company/9898189/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +83,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,16 +124,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,21 +432,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>